--- a/permission.xlsx
+++ b/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\cmr-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C140F-8E1C-4EFB-9AC2-40E4702AFAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B51CFDB-5FD6-4734-9401-404C26EB9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>all.cmr.menu</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>permission.export</t>
+  </si>
+  <si>
+    <t>setting.site.menu</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,6 +966,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/permission.xlsx
+++ b/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\cmr-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B51CFDB-5FD6-4734-9401-404C26EB9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93548B08-EC60-46FF-858A-9955C25F2B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>all.cmr.menu</t>
   </si>
@@ -200,13 +200,16 @@
   </si>
   <si>
     <t>setting.site.menu</t>
+  </si>
+  <si>
+    <t>upload.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -218,13 +221,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,14 +251,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +577,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -567,7 +585,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -575,7 +593,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -583,7 +601,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -591,7 +609,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -599,288 +617,288 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
+      <c r="A20" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
+      <c r="A21" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
+      <c r="A22" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -888,7 +906,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -896,81 +914,89 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>42</v>
+      <c r="A45" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>43</v>
+      <c r="A46" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>44</v>
+      <c r="A47" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
+      <c r="A50" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
     </row>
